--- a/report_graphs.xlsx
+++ b/report_graphs.xlsx
@@ -5,14 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jess/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jess/Desktop/cmput379_a3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="quicksort" sheetId="1" r:id="rId1"/>
+    <sheet name="heapsort" sheetId="4" r:id="rId2"/>
+    <sheet name="comparison" sheetId="5" r:id="rId3"/>
+    <sheet name="all" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>QUICKSORT</t>
   </si>
@@ -36,6 +39,54 @@
   </si>
   <si>
     <t>Window size</t>
+  </si>
+  <si>
+    <t>HEAPSORT</t>
+  </si>
+  <si>
+    <t>Window Size</t>
+  </si>
+  <si>
+    <t>quick sort</t>
+  </si>
+  <si>
+    <t>heapsort</t>
+  </si>
+  <si>
+    <t>Page 64</t>
+  </si>
+  <si>
+    <t>Page 128</t>
+  </si>
+  <si>
+    <t>Page 256</t>
+  </si>
+  <si>
+    <t>Page 512</t>
+  </si>
+  <si>
+    <t>quicksort 64</t>
+  </si>
+  <si>
+    <t>quicksort 128</t>
+  </si>
+  <si>
+    <t>quicksort 256</t>
+  </si>
+  <si>
+    <t>quicksort 512</t>
+  </si>
+  <si>
+    <t>heapsort 64</t>
+  </si>
+  <si>
+    <t>heapsort 128</t>
+  </si>
+  <si>
+    <t>heapsort 256</t>
+  </si>
+  <si>
+    <t>heapsort 512</t>
   </si>
 </sst>
 </file>
@@ -174,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:f>quicksort!$C$2:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -212,7 +263,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$B$11</c:f>
+              <c:f>quicksort!$A$4:$B$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -251,7 +302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:f>quicksort!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -289,7 +340,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2:$D$3</c:f>
+              <c:f>quicksort!$D$2:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -327,7 +378,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$B$11</c:f>
+              <c:f>quicksort!$A$4:$B$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -366,7 +417,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$11</c:f>
+              <c:f>quicksort!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -404,7 +455,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2:$E$3</c:f>
+              <c:f>quicksort!$E$2:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -442,7 +493,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$B$11</c:f>
+              <c:f>quicksort!$A$4:$B$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -481,7 +532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$11</c:f>
+              <c:f>quicksort!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -519,7 +570,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2:$F$3</c:f>
+              <c:f>quicksort!$F$2:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -557,7 +608,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$B$11</c:f>
+              <c:f>quicksort!$A$4:$B$11</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -596,7 +647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$11</c:f>
+              <c:f>quicksort!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -639,11 +690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1063734976"/>
-        <c:axId val="-1063919040"/>
+        <c:axId val="-1023100528"/>
+        <c:axId val="-1023097968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1063734976"/>
+        <c:axId val="-1023100528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,7 +737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1063919040"/>
+        <c:crossAx val="-1023097968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -694,7 +745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1063919040"/>
+        <c:axId val="-1023097968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +856,4050 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1063734976"/>
+        <c:crossAx val="-1023100528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HEAPSORT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heapsort!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Page Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>heapsort!$A$4:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window Size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>heapsort!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.398923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.705032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.331066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.486473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.644592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.353958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449.235199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>794.618286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heapsort!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Page Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>heapsort!$A$4:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window Size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>heapsort!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.518808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.560846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.312618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.773529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.416534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.476791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.523895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>679.664001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heapsort!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Page Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>heapsort!$A$4:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window Size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>heapsort!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.448574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.840948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.782913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.921818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.70005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.331955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337.054749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574.655518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heapsort!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Page Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>heapsort!$A$4:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window Size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>heapsort!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.436315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.160196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.529331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.248009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.785995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.624115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286.454193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>475.91629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1057548464"/>
+        <c:axId val="-1057451664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1057548464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1057451664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1057451664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Working</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Set Requirement</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1057548464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PAGE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SIZE 64</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$I$4:$J$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.554708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.344175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.837014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.651107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.938133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.818007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.173584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.068748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$I$4:$J$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$L$4:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.398923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.705032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.331066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.486473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.644592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.353958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449.235199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>794.618286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1020983936"/>
+        <c:axId val="-1020982160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1020983936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1020982160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1020982160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1020983936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PAGE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SIZE 128</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$N$4:$O$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$P$4:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.084302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.482153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.231929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.642674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.289193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.235044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.419947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.384167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$N$4:$O$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$Q$4:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.518808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.560846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.312618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.773529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.416534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.476791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.523895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>679.664001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1058122576"/>
+        <c:axId val="-1058124784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1058122576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1058124784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1058124784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1058122576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PAGE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SIZE 256</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$B$29:$C$36</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$D$29:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.829987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.025873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.404097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.113558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.441545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.918946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.518806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.013002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$B$29:$C$36</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$E$29:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.448574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.840948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.782913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.921818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.70005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.331955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337.054749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574.655518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1017811856"/>
+        <c:axId val="-1059870576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1017811856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1059870576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1059870576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1017811856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PAGE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SIZE 512</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$G$29:$H$36</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$I$29:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.678384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.778135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.964082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.32226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.990248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.233109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.538678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.795231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison!$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>comparison!$G$29:$H$36</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$J$29:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.436315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.160196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.529331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.248009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.785995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.624115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286.454193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>475.91629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1017981024"/>
+        <c:axId val="-1017978704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1017981024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1017978704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1017978704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1017981024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Working</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Set Requirements for Quicksort and Heapsort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quicksort 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$L$4:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.554708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.344175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.837014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.651107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.938133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.818007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.173584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.068748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quicksort 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$M$4:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.084302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.482153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.231929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.642674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.289193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.235044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.419947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.384167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quicksort 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$N$4:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.829987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.025873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.404097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.113558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.441545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.918946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.518806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.013002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quicksort 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$O$4:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.678384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.778135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.964082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.32226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.990248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.233109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.538678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.795231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$P$4:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.398923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.705032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.331066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.486473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.644592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.353958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449.235199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>794.618286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$Q$4:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.518808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.560846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.312618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.773529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.416534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.476791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.523895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>679.664001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$R$4:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.448574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.840948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.782913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.921818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.70005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.331955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337.054749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574.655518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapsort 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>all!$J$4:$K$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>512</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2048</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4096</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8192</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16384</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Window size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$S$4:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.436315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.160196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.529331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.248009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.785995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.624115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286.454193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>475.91629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1062812224"/>
+        <c:axId val="-1058062368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1062812224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1058062368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1058062368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Working</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Set Requirement</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1062812224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -926,7 +5020,3265 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1447,6 +8799,201 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1729,8 +9276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1919,4 +9466,1590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>256</v>
+      </c>
+      <c r="F3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <v>14.398923</v>
+      </c>
+      <c r="D4">
+        <v>13.518808</v>
+      </c>
+      <c r="E4">
+        <v>12.448574000000001</v>
+      </c>
+      <c r="F4">
+        <v>11.436315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5">
+        <v>256</v>
+      </c>
+      <c r="C5">
+        <v>24.705031999999999</v>
+      </c>
+      <c r="D5">
+        <v>22.560846000000002</v>
+      </c>
+      <c r="E5">
+        <v>20.840948000000001</v>
+      </c>
+      <c r="F5">
+        <v>19.160195999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>512</v>
+      </c>
+      <c r="C6">
+        <v>43.331066</v>
+      </c>
+      <c r="D6">
+        <v>39.312618000000001</v>
+      </c>
+      <c r="E6">
+        <v>35.782913000000001</v>
+      </c>
+      <c r="F6">
+        <v>32.529330999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <v>1024</v>
+      </c>
+      <c r="C7">
+        <v>77.486473000000004</v>
+      </c>
+      <c r="D7">
+        <v>69.773528999999996</v>
+      </c>
+      <c r="E7">
+        <v>62.921818000000002</v>
+      </c>
+      <c r="F7">
+        <v>56.248009000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8">
+        <v>2048</v>
+      </c>
+      <c r="C8">
+        <v>139.64459199999999</v>
+      </c>
+      <c r="D8">
+        <v>124.416534</v>
+      </c>
+      <c r="E8">
+        <v>110.70005</v>
+      </c>
+      <c r="F8">
+        <v>97.785995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <v>4096</v>
+      </c>
+      <c r="C9">
+        <v>251.35395800000001</v>
+      </c>
+      <c r="D9">
+        <v>221.47679099999999</v>
+      </c>
+      <c r="E9">
+        <v>194.33195499999999</v>
+      </c>
+      <c r="F9">
+        <v>168.62411499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <v>8192</v>
+      </c>
+      <c r="C10">
+        <v>449.23519900000002</v>
+      </c>
+      <c r="D10">
+        <v>390.52389499999998</v>
+      </c>
+      <c r="E10">
+        <v>337.05474900000002</v>
+      </c>
+      <c r="F10">
+        <v>286.45419299999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11">
+        <v>16384</v>
+      </c>
+      <c r="C11">
+        <v>794.61828600000001</v>
+      </c>
+      <c r="D11">
+        <v>679.66400099999998</v>
+      </c>
+      <c r="E11">
+        <v>574.65551800000003</v>
+      </c>
+      <c r="F11">
+        <v>475.91629</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>256</v>
+      </c>
+      <c r="G3">
+        <v>512</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>2.5547080000000002</v>
+      </c>
+      <c r="E4">
+        <v>2.0843020000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.829987</v>
+      </c>
+      <c r="G4">
+        <v>1.6783840000000001</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>128</v>
+      </c>
+      <c r="K4">
+        <v>2.5547080000000002</v>
+      </c>
+      <c r="L4">
+        <v>14.398923</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>128</v>
+      </c>
+      <c r="P4">
+        <v>2.0843020000000001</v>
+      </c>
+      <c r="Q4">
+        <v>13.518808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>3.3441749999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.4821529999999998</v>
+      </c>
+      <c r="F5">
+        <v>2.0258729999999998</v>
+      </c>
+      <c r="G5">
+        <v>1.778135</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5">
+        <v>256</v>
+      </c>
+      <c r="K5">
+        <v>3.3441749999999999</v>
+      </c>
+      <c r="L5">
+        <v>24.705031999999999</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5">
+        <v>256</v>
+      </c>
+      <c r="P5">
+        <v>2.4821529999999998</v>
+      </c>
+      <c r="Q5">
+        <v>22.560846000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>4.8370139999999999</v>
+      </c>
+      <c r="E6">
+        <v>3.2319290000000001</v>
+      </c>
+      <c r="F6">
+        <v>2.4040970000000002</v>
+      </c>
+      <c r="G6">
+        <v>1.9640820000000001</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6">
+        <v>512</v>
+      </c>
+      <c r="K6">
+        <v>4.8370139999999999</v>
+      </c>
+      <c r="L6">
+        <v>43.331066</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6">
+        <v>512</v>
+      </c>
+      <c r="P6">
+        <v>3.2319290000000001</v>
+      </c>
+      <c r="Q6">
+        <v>39.312618000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7">
+        <v>1024</v>
+      </c>
+      <c r="D7">
+        <v>7.6511069999999997</v>
+      </c>
+      <c r="E7">
+        <v>4.6426740000000004</v>
+      </c>
+      <c r="F7">
+        <v>3.1135579999999998</v>
+      </c>
+      <c r="G7">
+        <v>2.32226</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7">
+        <v>1024</v>
+      </c>
+      <c r="K7">
+        <v>7.6511069999999997</v>
+      </c>
+      <c r="L7">
+        <v>77.486473000000004</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7">
+        <v>1024</v>
+      </c>
+      <c r="P7">
+        <v>4.6426740000000004</v>
+      </c>
+      <c r="Q7">
+        <v>69.773528999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>2048</v>
+      </c>
+      <c r="D8">
+        <v>12.938133000000001</v>
+      </c>
+      <c r="E8">
+        <v>7.289193</v>
+      </c>
+      <c r="F8">
+        <v>4.4415449999999996</v>
+      </c>
+      <c r="G8">
+        <v>2.9902479999999998</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8">
+        <v>2048</v>
+      </c>
+      <c r="K8">
+        <v>12.938133000000001</v>
+      </c>
+      <c r="L8">
+        <v>139.64459199999999</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8">
+        <v>2048</v>
+      </c>
+      <c r="P8">
+        <v>7.289193</v>
+      </c>
+      <c r="Q8">
+        <v>124.416534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>4096</v>
+      </c>
+      <c r="D9">
+        <v>22.818007000000001</v>
+      </c>
+      <c r="E9">
+        <v>12.235044</v>
+      </c>
+      <c r="F9">
+        <v>6.918946</v>
+      </c>
+      <c r="G9">
+        <v>4.2331089999999998</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9">
+        <v>4096</v>
+      </c>
+      <c r="K9">
+        <v>22.818007000000001</v>
+      </c>
+      <c r="L9">
+        <v>251.35395800000001</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9">
+        <v>4096</v>
+      </c>
+      <c r="P9">
+        <v>12.235044</v>
+      </c>
+      <c r="Q9">
+        <v>221.47679099999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10">
+        <v>8192</v>
+      </c>
+      <c r="D10">
+        <v>41.173583999999998</v>
+      </c>
+      <c r="E10">
+        <v>21.419947000000001</v>
+      </c>
+      <c r="F10">
+        <v>11.518806</v>
+      </c>
+      <c r="G10">
+        <v>6.538678</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10">
+        <v>8192</v>
+      </c>
+      <c r="K10">
+        <v>41.173583999999998</v>
+      </c>
+      <c r="L10">
+        <v>449.23519900000002</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10">
+        <v>8192</v>
+      </c>
+      <c r="P10">
+        <v>21.419947000000001</v>
+      </c>
+      <c r="Q10">
+        <v>390.52389499999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>16384</v>
+      </c>
+      <c r="D11">
+        <v>75.068747999999999</v>
+      </c>
+      <c r="E11">
+        <v>38.384166999999998</v>
+      </c>
+      <c r="F11">
+        <v>20.013002</v>
+      </c>
+      <c r="G11">
+        <v>10.795230999999999</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11">
+        <v>16384</v>
+      </c>
+      <c r="K11">
+        <v>75.068747999999999</v>
+      </c>
+      <c r="L11">
+        <v>794.61828600000001</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11">
+        <v>16384</v>
+      </c>
+      <c r="P11">
+        <v>38.384166999999998</v>
+      </c>
+      <c r="Q11">
+        <v>679.66400099999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>14.398923</v>
+      </c>
+      <c r="E16">
+        <v>13.518808</v>
+      </c>
+      <c r="F16">
+        <v>12.448574000000001</v>
+      </c>
+      <c r="G16">
+        <v>11.436315</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>24.705031999999999</v>
+      </c>
+      <c r="E17">
+        <v>22.560846000000002</v>
+      </c>
+      <c r="F17">
+        <v>20.840948000000001</v>
+      </c>
+      <c r="G17">
+        <v>19.160195999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18">
+        <v>512</v>
+      </c>
+      <c r="D18">
+        <v>43.331066</v>
+      </c>
+      <c r="E18">
+        <v>39.312618000000001</v>
+      </c>
+      <c r="F18">
+        <v>35.782913000000001</v>
+      </c>
+      <c r="G18">
+        <v>32.529330999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19">
+        <v>1024</v>
+      </c>
+      <c r="D19">
+        <v>77.486473000000004</v>
+      </c>
+      <c r="E19">
+        <v>69.773528999999996</v>
+      </c>
+      <c r="F19">
+        <v>62.921818000000002</v>
+      </c>
+      <c r="G19">
+        <v>56.248009000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20">
+        <v>2048</v>
+      </c>
+      <c r="D20">
+        <v>139.64459199999999</v>
+      </c>
+      <c r="E20">
+        <v>124.416534</v>
+      </c>
+      <c r="F20">
+        <v>110.70005</v>
+      </c>
+      <c r="G20">
+        <v>97.785995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21">
+        <v>4096</v>
+      </c>
+      <c r="D21">
+        <v>251.35395800000001</v>
+      </c>
+      <c r="E21">
+        <v>221.47679099999999</v>
+      </c>
+      <c r="F21">
+        <v>194.33195499999999</v>
+      </c>
+      <c r="G21">
+        <v>168.62411499999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22">
+        <v>8192</v>
+      </c>
+      <c r="D22">
+        <v>449.23519900000002</v>
+      </c>
+      <c r="E22">
+        <v>390.52389499999998</v>
+      </c>
+      <c r="F22">
+        <v>337.05474900000002</v>
+      </c>
+      <c r="G22">
+        <v>286.45419299999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23">
+        <v>16384</v>
+      </c>
+      <c r="D23">
+        <v>794.61828600000001</v>
+      </c>
+      <c r="E23">
+        <v>679.66400099999998</v>
+      </c>
+      <c r="F23">
+        <v>574.65551800000003</v>
+      </c>
+      <c r="G23">
+        <v>475.91629</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <v>1.829987</v>
+      </c>
+      <c r="E29">
+        <v>12.448574000000001</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>128</v>
+      </c>
+      <c r="I29">
+        <v>1.6783840000000001</v>
+      </c>
+      <c r="J29">
+        <v>11.436315</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30">
+        <v>256</v>
+      </c>
+      <c r="D30">
+        <v>2.0258729999999998</v>
+      </c>
+      <c r="E30">
+        <v>20.840948000000001</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30">
+        <v>256</v>
+      </c>
+      <c r="I30">
+        <v>1.778135</v>
+      </c>
+      <c r="J30">
+        <v>19.160195999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31">
+        <v>512</v>
+      </c>
+      <c r="D31">
+        <v>2.4040970000000002</v>
+      </c>
+      <c r="E31">
+        <v>35.782913000000001</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31">
+        <v>512</v>
+      </c>
+      <c r="I31">
+        <v>1.9640820000000001</v>
+      </c>
+      <c r="J31">
+        <v>32.529330999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32">
+        <v>1024</v>
+      </c>
+      <c r="D32">
+        <v>3.1135579999999998</v>
+      </c>
+      <c r="E32">
+        <v>62.921818000000002</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32">
+        <v>1024</v>
+      </c>
+      <c r="I32">
+        <v>2.32226</v>
+      </c>
+      <c r="J32">
+        <v>56.248009000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33">
+        <v>2048</v>
+      </c>
+      <c r="D33">
+        <v>4.4415449999999996</v>
+      </c>
+      <c r="E33">
+        <v>110.70005</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33">
+        <v>2048</v>
+      </c>
+      <c r="I33">
+        <v>2.9902479999999998</v>
+      </c>
+      <c r="J33">
+        <v>97.785995</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34">
+        <v>4096</v>
+      </c>
+      <c r="D34">
+        <v>6.918946</v>
+      </c>
+      <c r="E34">
+        <v>194.33195499999999</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34">
+        <v>4096</v>
+      </c>
+      <c r="I34">
+        <v>4.2331089999999998</v>
+      </c>
+      <c r="J34">
+        <v>168.62411499999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35">
+        <v>8192</v>
+      </c>
+      <c r="D35">
+        <v>11.518806</v>
+      </c>
+      <c r="E35">
+        <v>337.05474900000002</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35">
+        <v>8192</v>
+      </c>
+      <c r="I35">
+        <v>6.538678</v>
+      </c>
+      <c r="J35">
+        <v>286.45419299999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36">
+        <v>16384</v>
+      </c>
+      <c r="D36">
+        <v>20.013002</v>
+      </c>
+      <c r="E36">
+        <v>574.65551800000003</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36">
+        <v>16384</v>
+      </c>
+      <c r="I36">
+        <v>10.795230999999999</v>
+      </c>
+      <c r="J36">
+        <v>475.91629</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>256</v>
+      </c>
+      <c r="G3">
+        <v>512</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>2.5547080000000002</v>
+      </c>
+      <c r="E4">
+        <v>2.0843020000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.829987</v>
+      </c>
+      <c r="G4">
+        <v>1.6783840000000001</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>128</v>
+      </c>
+      <c r="L4">
+        <v>2.5547080000000002</v>
+      </c>
+      <c r="M4">
+        <v>2.0843020000000001</v>
+      </c>
+      <c r="N4">
+        <v>1.829987</v>
+      </c>
+      <c r="O4">
+        <v>1.6783840000000001</v>
+      </c>
+      <c r="P4">
+        <v>14.398923</v>
+      </c>
+      <c r="Q4">
+        <v>13.518808</v>
+      </c>
+      <c r="R4">
+        <v>12.448574000000001</v>
+      </c>
+      <c r="S4">
+        <v>11.436315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>3.3441749999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.4821529999999998</v>
+      </c>
+      <c r="F5">
+        <v>2.0258729999999998</v>
+      </c>
+      <c r="G5">
+        <v>1.778135</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5">
+        <v>256</v>
+      </c>
+      <c r="L5">
+        <v>3.3441749999999999</v>
+      </c>
+      <c r="M5">
+        <v>2.4821529999999998</v>
+      </c>
+      <c r="N5">
+        <v>2.0258729999999998</v>
+      </c>
+      <c r="O5">
+        <v>1.778135</v>
+      </c>
+      <c r="P5">
+        <v>24.705031999999999</v>
+      </c>
+      <c r="Q5">
+        <v>22.560846000000002</v>
+      </c>
+      <c r="R5">
+        <v>20.840948000000001</v>
+      </c>
+      <c r="S5">
+        <v>19.160195999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>4.8370139999999999</v>
+      </c>
+      <c r="E6">
+        <v>3.2319290000000001</v>
+      </c>
+      <c r="F6">
+        <v>2.4040970000000002</v>
+      </c>
+      <c r="G6">
+        <v>1.9640820000000001</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6">
+        <v>512</v>
+      </c>
+      <c r="L6">
+        <v>4.8370139999999999</v>
+      </c>
+      <c r="M6">
+        <v>3.2319290000000001</v>
+      </c>
+      <c r="N6">
+        <v>2.4040970000000002</v>
+      </c>
+      <c r="O6">
+        <v>1.9640820000000001</v>
+      </c>
+      <c r="P6">
+        <v>43.331066</v>
+      </c>
+      <c r="Q6">
+        <v>39.312618000000001</v>
+      </c>
+      <c r="R6">
+        <v>35.782913000000001</v>
+      </c>
+      <c r="S6">
+        <v>32.529330999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7">
+        <v>1024</v>
+      </c>
+      <c r="D7">
+        <v>7.6511069999999997</v>
+      </c>
+      <c r="E7">
+        <v>4.6426740000000004</v>
+      </c>
+      <c r="F7">
+        <v>3.1135579999999998</v>
+      </c>
+      <c r="G7">
+        <v>2.32226</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7">
+        <v>1024</v>
+      </c>
+      <c r="L7">
+        <v>7.6511069999999997</v>
+      </c>
+      <c r="M7">
+        <v>4.6426740000000004</v>
+      </c>
+      <c r="N7">
+        <v>3.1135579999999998</v>
+      </c>
+      <c r="O7">
+        <v>2.32226</v>
+      </c>
+      <c r="P7">
+        <v>77.486473000000004</v>
+      </c>
+      <c r="Q7">
+        <v>69.773528999999996</v>
+      </c>
+      <c r="R7">
+        <v>62.921818000000002</v>
+      </c>
+      <c r="S7">
+        <v>56.248009000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>2048</v>
+      </c>
+      <c r="D8">
+        <v>12.938133000000001</v>
+      </c>
+      <c r="E8">
+        <v>7.289193</v>
+      </c>
+      <c r="F8">
+        <v>4.4415449999999996</v>
+      </c>
+      <c r="G8">
+        <v>2.9902479999999998</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8">
+        <v>2048</v>
+      </c>
+      <c r="L8">
+        <v>12.938133000000001</v>
+      </c>
+      <c r="M8">
+        <v>7.289193</v>
+      </c>
+      <c r="N8">
+        <v>4.4415449999999996</v>
+      </c>
+      <c r="O8">
+        <v>2.9902479999999998</v>
+      </c>
+      <c r="P8">
+        <v>139.64459199999999</v>
+      </c>
+      <c r="Q8">
+        <v>124.416534</v>
+      </c>
+      <c r="R8">
+        <v>110.70005</v>
+      </c>
+      <c r="S8">
+        <v>97.785995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>4096</v>
+      </c>
+      <c r="D9">
+        <v>22.818007000000001</v>
+      </c>
+      <c r="E9">
+        <v>12.235044</v>
+      </c>
+      <c r="F9">
+        <v>6.918946</v>
+      </c>
+      <c r="G9">
+        <v>4.2331089999999998</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9">
+        <v>4096</v>
+      </c>
+      <c r="L9">
+        <v>22.818007000000001</v>
+      </c>
+      <c r="M9">
+        <v>12.235044</v>
+      </c>
+      <c r="N9">
+        <v>6.918946</v>
+      </c>
+      <c r="O9">
+        <v>4.2331089999999998</v>
+      </c>
+      <c r="P9">
+        <v>251.35395800000001</v>
+      </c>
+      <c r="Q9">
+        <v>221.47679099999999</v>
+      </c>
+      <c r="R9">
+        <v>194.33195499999999</v>
+      </c>
+      <c r="S9">
+        <v>168.62411499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10">
+        <v>8192</v>
+      </c>
+      <c r="D10">
+        <v>41.173583999999998</v>
+      </c>
+      <c r="E10">
+        <v>21.419947000000001</v>
+      </c>
+      <c r="F10">
+        <v>11.518806</v>
+      </c>
+      <c r="G10">
+        <v>6.538678</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10">
+        <v>8192</v>
+      </c>
+      <c r="L10">
+        <v>41.173583999999998</v>
+      </c>
+      <c r="M10">
+        <v>21.419947000000001</v>
+      </c>
+      <c r="N10">
+        <v>11.518806</v>
+      </c>
+      <c r="O10">
+        <v>6.538678</v>
+      </c>
+      <c r="P10">
+        <v>449.23519900000002</v>
+      </c>
+      <c r="Q10">
+        <v>390.52389499999998</v>
+      </c>
+      <c r="R10">
+        <v>337.05474900000002</v>
+      </c>
+      <c r="S10">
+        <v>286.45419299999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>16384</v>
+      </c>
+      <c r="D11">
+        <v>75.068747999999999</v>
+      </c>
+      <c r="E11">
+        <v>38.384166999999998</v>
+      </c>
+      <c r="F11">
+        <v>20.013002</v>
+      </c>
+      <c r="G11">
+        <v>10.795230999999999</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11">
+        <v>16384</v>
+      </c>
+      <c r="L11">
+        <v>75.068747999999999</v>
+      </c>
+      <c r="M11">
+        <v>38.384166999999998</v>
+      </c>
+      <c r="N11">
+        <v>20.013002</v>
+      </c>
+      <c r="O11">
+        <v>10.795230999999999</v>
+      </c>
+      <c r="P11">
+        <v>794.61828600000001</v>
+      </c>
+      <c r="Q11">
+        <v>679.66400099999998</v>
+      </c>
+      <c r="R11">
+        <v>574.65551800000003</v>
+      </c>
+      <c r="S11">
+        <v>475.91629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>14.398923</v>
+      </c>
+      <c r="E16">
+        <v>13.518808</v>
+      </c>
+      <c r="F16">
+        <v>12.448574000000001</v>
+      </c>
+      <c r="G16">
+        <v>11.436315</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>24.705031999999999</v>
+      </c>
+      <c r="E17">
+        <v>22.560846000000002</v>
+      </c>
+      <c r="F17">
+        <v>20.840948000000001</v>
+      </c>
+      <c r="G17">
+        <v>19.160195999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18">
+        <v>512</v>
+      </c>
+      <c r="D18">
+        <v>43.331066</v>
+      </c>
+      <c r="E18">
+        <v>39.312618000000001</v>
+      </c>
+      <c r="F18">
+        <v>35.782913000000001</v>
+      </c>
+      <c r="G18">
+        <v>32.529330999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19">
+        <v>1024</v>
+      </c>
+      <c r="D19">
+        <v>77.486473000000004</v>
+      </c>
+      <c r="E19">
+        <v>69.773528999999996</v>
+      </c>
+      <c r="F19">
+        <v>62.921818000000002</v>
+      </c>
+      <c r="G19">
+        <v>56.248009000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20">
+        <v>2048</v>
+      </c>
+      <c r="D20">
+        <v>139.64459199999999</v>
+      </c>
+      <c r="E20">
+        <v>124.416534</v>
+      </c>
+      <c r="F20">
+        <v>110.70005</v>
+      </c>
+      <c r="G20">
+        <v>97.785995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21">
+        <v>4096</v>
+      </c>
+      <c r="D21">
+        <v>251.35395800000001</v>
+      </c>
+      <c r="E21">
+        <v>221.47679099999999</v>
+      </c>
+      <c r="F21">
+        <v>194.33195499999999</v>
+      </c>
+      <c r="G21">
+        <v>168.62411499999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22">
+        <v>8192</v>
+      </c>
+      <c r="D22">
+        <v>449.23519900000002</v>
+      </c>
+      <c r="E22">
+        <v>390.52389499999998</v>
+      </c>
+      <c r="F22">
+        <v>337.05474900000002</v>
+      </c>
+      <c r="G22">
+        <v>286.45419299999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23">
+        <v>16384</v>
+      </c>
+      <c r="D23">
+        <v>794.61828600000001</v>
+      </c>
+      <c r="E23">
+        <v>679.66400099999998</v>
+      </c>
+      <c r="F23">
+        <v>574.65551800000003</v>
+      </c>
+      <c r="G23">
+        <v>475.91629</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="J4:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>